--- a/data/RN_Organization.xlsx
+++ b/data/RN_Organization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyuanrui/COSN_Manuscript/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91974CAB-6DA2-4A4D-9E93-3D325159906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD840910-673C-AB45-89DC-1142BA4C763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{E959509A-0B78-0249-9A7F-EFF923A715A2}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="17500" xr2:uid="{E959509A-0B78-0249-9A7F-EFF923A715A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
